--- a/testdata/inputdata.xlsx
+++ b/testdata/inputdata.xlsx
@@ -7,23 +7,89 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CustomerDetails" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>WEBSITE</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>CONFIRM PASSWORD</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>ajit</t>
+  </si>
+  <si>
+    <t>biswas</t>
+  </si>
+  <si>
+    <t>Qspiders</t>
+  </si>
+  <si>
+    <t>www.qspiders.com</t>
+  </si>
+  <si>
+    <t>amit</t>
+  </si>
+  <si>
+    <t>TestYantra</t>
+  </si>
+  <si>
+    <t>www.testyantra.com</t>
+  </si>
+  <si>
+    <t>ajit.biswas113@gmail.com</t>
+  </si>
+  <si>
+    <t>amit.biswas123@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,13 +109,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,12 +414,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2">
+        <v>123456</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>123456</v>
+      </c>
+      <c r="G3">
+        <v>123456</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
